--- a/Test Data Driven/AI-Generated/TC4-Configure Test Environment and Verify Home Page.xlsx
+++ b/Test Data Driven/AI-Generated/TC4-Configure Test Environment and Verify Home Page.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,95 +446,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="53" customWidth="1" min="1" max="1"/>
-    <col width="53" customWidth="1" min="2" max="2"/>
-    <col width="61" customWidth="1" min="3" max="3"/>
-    <col width="47" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="96" customWidth="1" min="7" max="7"/>
-    <col width="96" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>div_backdropComponents_class</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>div_backdropComponents_class_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>div_integrationTool_class</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>div_integrationTool_class_1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>div_integrationTool_internalRoleTreeitemName</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>input_Name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>p_sessionInfo_class</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>p_sessionInfo_class_1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MuiBackdrop-root\ MuiBackdrop-invisible\ css-esi9ax</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MuiBackdrop-root\ MuiBackdrop-invisible\ css-esi9ax</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>css-151cthe\ MuiTreeItem-content\ Mui-expanded\ Mui-focused</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>css-151cthe\ MuiTreeItem-content\ Mui-focused</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Codeless Automation Tool</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MuiBox-root\ css-0"]:nth-child(5) [class="MuiTypography-root\ MuiTypography-body1\ css-1lpm9pj</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>MuiBox-root\ css-0"]:nth-child(1) [class="MuiTypography-root\ MuiTypography-body1\ css-1lpm9pj</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
